--- a/テスト仕様書/注文機能テスト仕様書.xlsx
+++ b/テスト仕様書/注文機能テスト仕様書.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junpei.azuma\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="4360"/>
   </bookViews>
   <sheets>
     <sheet name="注文機能テスト仕様書" sheetId="1" r:id="rId1"/>
     <sheet name="注文機能デシジョンテーブル" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2293,8 +2289,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2320,11 +2337,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2335,38 +2358,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2660,43 +2656,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="23.5" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="43"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="27">
         <v>44001</v>
       </c>
-      <c r="I2" s="44"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="23.5" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2728,1042 +2729,1102 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
     </row>
     <row r="30" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
     </row>
     <row r="33" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
     </row>
     <row r="35" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
     </row>
     <row r="37" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
     </row>
     <row r="38" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
     </row>
     <row r="39" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
     </row>
     <row r="42" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
     </row>
     <row r="43" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
     </row>
     <row r="44" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
     </row>
     <row r="45" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
     </row>
     <row r="46" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
     </row>
     <row r="47" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
     </row>
     <row r="48" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
     </row>
     <row r="50" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
     </row>
     <row r="51" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
     </row>
     <row r="52" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
     </row>
     <row r="53" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
     </row>
     <row r="54" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
     </row>
     <row r="55" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
     </row>
     <row r="56" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
     </row>
     <row r="57" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
     </row>
     <row r="58" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
     </row>
     <row r="59" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
     </row>
     <row r="60" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A60" s="21"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
     </row>
     <row r="61" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
     </row>
     <row r="62" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
     </row>
     <row r="63" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
     </row>
     <row r="64" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
     </row>
     <row r="65" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
     </row>
     <row r="66" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
     </row>
     <row r="67" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
     </row>
     <row r="68" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A68" s="21"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
     </row>
     <row r="69" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
     </row>
     <row r="70" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A70" s="21"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
     </row>
     <row r="71" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A71" s="21"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
     </row>
     <row r="72" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
     </row>
     <row r="73" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
     </row>
     <row r="74" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
     </row>
     <row r="75" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A75" s="21"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
     </row>
     <row r="76" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
     </row>
     <row r="77" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A77" s="21"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
     </row>
     <row r="78" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="I19:I23"/>
@@ -3782,96 +3843,36 @@
     <mergeCell ref="F19:F23"/>
     <mergeCell ref="H24:H28"/>
     <mergeCell ref="I24:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5105,7 +5106,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" ht="409.6">
       <c r="A31" s="9" t="s">
         <v>133</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" ht="409.6">
       <c r="A32" s="14" t="s">
         <v>134</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" ht="409.6">
       <c r="A42" s="18" t="s">
         <v>136</v>
       </c>
@@ -5255,7 +5256,7 @@
       <c r="K42" s="47"/>
       <c r="L42" s="47"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" ht="409.6">
       <c r="A43" s="7" t="s">
         <v>138</v>
       </c>
@@ -5273,7 +5274,7 @@
       <c r="K43" s="45"/>
       <c r="L43" s="45"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" ht="409.6">
       <c r="A44" s="7" t="s">
         <v>139</v>
       </c>
@@ -5291,7 +5292,7 @@
       <c r="K44" s="45"/>
       <c r="L44" s="45"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" ht="409.6">
       <c r="A45" s="7" t="s">
         <v>141</v>
       </c>
@@ -5309,7 +5310,7 @@
       <c r="K45" s="45"/>
       <c r="L45" s="45"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" ht="409.6">
       <c r="A46" s="7" t="s">
         <v>143</v>
       </c>
@@ -5327,7 +5328,7 @@
       <c r="K46" s="46"/>
       <c r="L46" s="46"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" ht="409.6">
       <c r="A47" s="7" t="s">
         <v>145</v>
       </c>
@@ -5345,7 +5346,7 @@
       <c r="K47" s="45"/>
       <c r="L47" s="45"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" ht="409.6">
       <c r="A48" s="7" t="s">
         <v>147</v>
       </c>
@@ -5363,7 +5364,7 @@
       <c r="K48" s="45"/>
       <c r="L48" s="45"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="409.6">
       <c r="A49" s="7" t="s">
         <v>149</v>
       </c>
@@ -5381,7 +5382,7 @@
       <c r="K49" s="45"/>
       <c r="L49" s="45"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" ht="409.6">
       <c r="A50" s="7" t="s">
         <v>151</v>
       </c>
@@ -5399,7 +5400,7 @@
       <c r="K50" s="46"/>
       <c r="L50" s="46"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" ht="409.6">
       <c r="A51" s="7" t="s">
         <v>153</v>
       </c>
@@ -5417,7 +5418,7 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" ht="409.6">
       <c r="A52" s="13" t="s">
         <v>155</v>
       </c>
@@ -5435,7 +5436,7 @@
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="409.6">
       <c r="A53" s="13" t="s">
         <v>157</v>
       </c>

--- a/テスト仕様書/注文機能テスト仕様書.xlsx
+++ b/テスト仕様書/注文機能テスト仕様書.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junpei.azuma\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14300" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="注文機能テスト仕様書" sheetId="1" r:id="rId1"/>
     <sheet name="注文機能デシジョンテーブル" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="E49:H60"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="164">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1798,6 +1794,29 @@
     <rPh sb="8" eb="10">
       <t>キゲン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東</t>
+    <rPh sb="0" eb="1">
+      <t>アズマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2232,7 +2251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2293,8 +2312,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2320,11 +2360,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2335,38 +2381,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2376,6 +2395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2660,43 +2682,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="23.5" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="43"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="27">
         <v>44001</v>
       </c>
-      <c r="I2" s="44"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="23.5" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -2728,1042 +2750,1186 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="G4" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="G9" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="G19" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="G24" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="G29" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
     </row>
     <row r="33" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="G34" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
     </row>
     <row r="37" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
     </row>
     <row r="38" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
     </row>
     <row r="39" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="G39" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
     </row>
     <row r="42" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
     </row>
     <row r="43" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
     </row>
     <row r="44" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="G44" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
     </row>
     <row r="46" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
     </row>
     <row r="47" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
     </row>
     <row r="48" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="G49" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
     </row>
     <row r="51" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
     </row>
     <row r="52" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
     </row>
     <row r="53" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
     </row>
     <row r="54" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="G54" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
     </row>
     <row r="56" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
     </row>
     <row r="57" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
     </row>
     <row r="58" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
     </row>
     <row r="59" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F59" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="G59" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A60" s="21"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
     </row>
     <row r="61" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
     </row>
     <row r="62" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
     </row>
     <row r="63" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
     </row>
     <row r="64" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="G64" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H64" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
     </row>
     <row r="66" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
     </row>
     <row r="67" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
     </row>
     <row r="68" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A68" s="21"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
     </row>
     <row r="69" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="F69" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="G69" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H69" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A70" s="21"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
     </row>
     <row r="71" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A71" s="21"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
     </row>
     <row r="72" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
     </row>
     <row r="73" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
     </row>
     <row r="74" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
     </row>
     <row r="75" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A75" s="21"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
     </row>
     <row r="76" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
     </row>
     <row r="77" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A77" s="21"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
     </row>
     <row r="78" spans="1:9" ht="23.5" customHeight="1">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="I19:I23"/>
@@ -3782,96 +3948,36 @@
     <mergeCell ref="F19:F23"/>
     <mergeCell ref="H24:H28"/>
     <mergeCell ref="I24:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3882,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>

--- a/テスト仕様書/注文機能テスト仕様書.xlsx
+++ b/テスト仕様書/注文機能テスト仕様書.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="4360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14300" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="注文機能テスト仕様書" sheetId="1" r:id="rId1"/>
     <sheet name="注文機能デシジョンテーブル" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="E49:H60"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="164">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1794,6 +1794,29 @@
     <rPh sb="8" eb="10">
       <t>キゲン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東</t>
+    <rPh sb="0" eb="1">
+      <t>アズマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2228,7 +2251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2372,6 +2395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2657,15 +2683,10 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="23.5" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" customWidth="1"/>
-    <col min="5" max="5" width="34.26953125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" customHeight="1">
       <c r="A1" s="20" t="s">
@@ -2747,9 +2768,15 @@
       <c r="F4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="23.5" customHeight="1">
       <c r="A5" s="28"/>
@@ -2814,9 +2841,15 @@
       <c r="F9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="23.5" customHeight="1">
       <c r="A10" s="28"/>
@@ -2881,9 +2914,15 @@
       <c r="F14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="G14" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="23.5" customHeight="1">
       <c r="A15" s="28"/>
@@ -2948,9 +2987,15 @@
       <c r="F19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="G19" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="23.5" customHeight="1">
       <c r="A20" s="28"/>
@@ -3015,9 +3060,15 @@
       <c r="F24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="23.5" customHeight="1">
       <c r="A25" s="28"/>
@@ -3082,9 +3133,15 @@
       <c r="F29" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="G29" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="23.5" customHeight="1">
       <c r="A30" s="28"/>
@@ -3149,9 +3206,15 @@
       <c r="F34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="23.5" customHeight="1">
       <c r="A35" s="28"/>
@@ -3216,9 +3279,15 @@
       <c r="F39" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
+      <c r="G39" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="23.5" customHeight="1">
       <c r="A40" s="28"/>
@@ -3283,9 +3352,15 @@
       <c r="F44" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="G44" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="23.5" customHeight="1">
       <c r="A45" s="28"/>
@@ -3350,9 +3425,15 @@
       <c r="F49" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
+      <c r="G49" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="23.5" customHeight="1">
       <c r="A50" s="28"/>
@@ -3417,9 +3498,15 @@
       <c r="F54" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
+      <c r="G54" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="23.5" customHeight="1">
       <c r="A55" s="28"/>
@@ -3484,9 +3571,15 @@
       <c r="F59" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
+      <c r="G59" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="23.5" customHeight="1">
       <c r="A60" s="28"/>
@@ -3551,9 +3644,15 @@
       <c r="F64" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
+      <c r="G64" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H64" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="23.5" customHeight="1">
       <c r="A65" s="28"/>
@@ -3618,9 +3717,15 @@
       <c r="F69" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
+      <c r="G69" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H69" s="48">
+        <v>44027</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="23.5" customHeight="1">
       <c r="A70" s="28"/>
@@ -3883,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5106,7 +5211,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="409.6">
+    <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
         <v>133</v>
       </c>
@@ -5150,7 +5255,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="409.6">
+    <row r="32" spans="1:14">
       <c r="A32" s="14" t="s">
         <v>134</v>
       </c>
@@ -5238,7 +5343,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="409.6">
+    <row r="42" spans="1:14">
       <c r="A42" s="18" t="s">
         <v>136</v>
       </c>
@@ -5256,7 +5361,7 @@
       <c r="K42" s="47"/>
       <c r="L42" s="47"/>
     </row>
-    <row r="43" spans="1:14" ht="409.6">
+    <row r="43" spans="1:14">
       <c r="A43" s="7" t="s">
         <v>138</v>
       </c>
@@ -5274,7 +5379,7 @@
       <c r="K43" s="45"/>
       <c r="L43" s="45"/>
     </row>
-    <row r="44" spans="1:14" ht="409.6">
+    <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
         <v>139</v>
       </c>
@@ -5292,7 +5397,7 @@
       <c r="K44" s="45"/>
       <c r="L44" s="45"/>
     </row>
-    <row r="45" spans="1:14" ht="409.6">
+    <row r="45" spans="1:14">
       <c r="A45" s="7" t="s">
         <v>141</v>
       </c>
@@ -5310,7 +5415,7 @@
       <c r="K45" s="45"/>
       <c r="L45" s="45"/>
     </row>
-    <row r="46" spans="1:14" ht="409.6">
+    <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
         <v>143</v>
       </c>
@@ -5328,7 +5433,7 @@
       <c r="K46" s="46"/>
       <c r="L46" s="46"/>
     </row>
-    <row r="47" spans="1:14" ht="409.6">
+    <row r="47" spans="1:14">
       <c r="A47" s="7" t="s">
         <v>145</v>
       </c>
@@ -5346,7 +5451,7 @@
       <c r="K47" s="45"/>
       <c r="L47" s="45"/>
     </row>
-    <row r="48" spans="1:14" ht="409.6">
+    <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
         <v>147</v>
       </c>
@@ -5364,7 +5469,7 @@
       <c r="K48" s="45"/>
       <c r="L48" s="45"/>
     </row>
-    <row r="49" spans="1:12" ht="409.6">
+    <row r="49" spans="1:12">
       <c r="A49" s="7" t="s">
         <v>149</v>
       </c>
@@ -5382,7 +5487,7 @@
       <c r="K49" s="45"/>
       <c r="L49" s="45"/>
     </row>
-    <row r="50" spans="1:12" ht="409.6">
+    <row r="50" spans="1:12">
       <c r="A50" s="7" t="s">
         <v>151</v>
       </c>
@@ -5400,7 +5505,7 @@
       <c r="K50" s="46"/>
       <c r="L50" s="46"/>
     </row>
-    <row r="51" spans="1:12" ht="409.6">
+    <row r="51" spans="1:12">
       <c r="A51" s="7" t="s">
         <v>153</v>
       </c>
@@ -5418,7 +5523,7 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12" ht="409.6">
+    <row r="52" spans="1:12">
       <c r="A52" s="13" t="s">
         <v>155</v>
       </c>
@@ -5436,7 +5541,7 @@
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
     </row>
-    <row r="53" spans="1:12" ht="409.6">
+    <row r="53" spans="1:12">
       <c r="A53" s="13" t="s">
         <v>157</v>
       </c>
